--- a/data/outputs/concept_frequency_consensus.xlsx
+++ b/data/outputs/concept_frequency_consensus.xlsx
@@ -464,14 +464,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -482,14 +482,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>llama3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -500,14 +500,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>mistral</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8166666666666668</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -518,14 +518,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5666666666666668</v>
       </c>
     </row>
     <row r="6">
@@ -536,14 +536,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>llama3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -554,14 +554,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>mistral</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -572,14 +572,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -590,14 +590,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>llama3</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -608,14 +608,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>mistral</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11">
@@ -626,14 +626,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -644,14 +644,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>llama3</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -662,14 +662,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>mistral</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8166666666666668</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -680,14 +680,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -698,14 +698,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>llama3</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
@@ -716,14 +716,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>mistral</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +777,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'training': 0, 'trust': 1, 'community impact': 1, 'confidence': 1, 'knowledge sharing': 1}</t>
+          <t>{'training': 0, 'trust': 1, 'community impact': 1, 'confidence': 0, 'knowledge sharing': 1}</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'training': 1, 'trust': 0, 'community impact': 0, 'confidence': 1, 'knowledge sharing': 1}</t>
+          <t>{'training': 1, 'trust': 0, 'community impact': 0, 'confidence': 1, 'knowledge sharing': 0}</t>
         </is>
       </c>
     </row>

--- a/data/outputs/concept_frequency_consensus.xlsx
+++ b/data/outputs/concept_frequency_consensus.xlsx
@@ -464,14 +464,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gemini</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -482,14 +482,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -500,14 +500,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -518,14 +518,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gemini</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -536,14 +536,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
@@ -554,14 +554,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -572,14 +572,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gemini</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -590,14 +590,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -608,14 +608,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -626,14 +626,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gemini</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -644,14 +644,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -662,14 +662,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -680,14 +680,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gemini</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6333333333333334</v>
       </c>
     </row>
     <row r="15">
@@ -698,14 +698,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -716,7 +716,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'training': 0, 'trust': 1, 'community impact': 1, 'confidence': 0, 'knowledge sharing': 1}</t>
+          <t>{'training': 0, 'trust': 1, 'community impact': 1, 'confidence': 1, 'knowledge sharing': 1}</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'training': 1, 'trust': 0, 'community impact': 0, 'confidence': 1, 'knowledge sharing': 0}</t>
+          <t>{'training': 1, 'trust': 0, 'community impact': 0, 'confidence': 1, 'knowledge sharing': 1}</t>
         </is>
       </c>
     </row>
